--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_14_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_14_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11808.23826425115</v>
+        <v>2349839.414585978</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11808.23826425115</v>
+        <v>2349839.414585978</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28422.55647011534</v>
+        <v>1705353.388206922</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28422.55647011534</v>
+        <v>1705353.388206922</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1113000683.682718</v>
+        <v>45411153.35972809</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10838.42875250166</v>
+        <v>1135122.718757554</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20381.6780194327</v>
+        <v>2048171.072998685</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29924.92728636372</v>
+        <v>2961219.427239817</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40480.5855730207</v>
+        <v>3819410.583604622</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>51036.24385967766</v>
+        <v>4677601.739969427</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60688.98776647986</v>
+        <v>5590370.860312868</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70341.73167328208</v>
+        <v>6503139.980656307</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>79994.47558008428</v>
+        <v>7415909.100999747</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>90345.81871522614</v>
+        <v>8260862.536152425</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>100763.6830624892</v>
+        <v>9119053.692517227</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>111181.5474097523</v>
+        <v>9977244.848882031</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>121599.4117570153</v>
+        <v>10835436.00524684</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>132017.2761042784</v>
+        <v>11693627.16161165</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>142435.1404515414</v>
+        <v>12551818.31797647</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>152853.0047988045</v>
+        <v>13410009.47434128</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
@@ -27055,7 +27055,7 @@
         <v>132</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1231</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
